--- a/Livrable/doc/Tableau compétences référentiel.xlsx
+++ b/Livrable/doc/Tableau compétences référentiel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>N° Fiche AT</t>
   </si>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -287,6 +287,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -308,25 +327,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +633,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -641,36 +647,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -679,23 +685,25 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="I4" s="23"/>
+      <c r="E4" s="12"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -707,8 +715,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -720,8 +728,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -731,13 +739,13 @@
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
@@ -751,8 +759,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
@@ -764,8 +772,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -775,10 +783,10 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
@@ -792,8 +800,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3">
         <v>10</v>
       </c>
@@ -805,8 +813,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3">
         <v>11</v>
       </c>
@@ -818,8 +826,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3">
         <v>12</v>
       </c>
@@ -831,8 +839,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3">
         <v>13</v>
       </c>
@@ -842,19 +850,21 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="3">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5">
         <v>15</v>
       </c>

--- a/Livrable/doc/Tableau compétences référentiel.xlsx
+++ b/Livrable/doc/Tableau compétences référentiel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>N° Fiche AT</t>
   </si>
@@ -260,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -287,6 +287,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -299,40 +320,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +627,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -647,36 +641,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -685,25 +679,23 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="I4" s="14"/>
+      <c r="E4" s="21"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -715,8 +707,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>4</v>
       </c>
@@ -728,8 +720,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -739,13 +731,13 @@
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="1">
@@ -759,8 +751,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="3">
         <v>7</v>
       </c>
@@ -772,8 +764,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -783,10 +775,10 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1">
@@ -800,8 +792,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3">
         <v>10</v>
       </c>
@@ -813,8 +805,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="3">
         <v>11</v>
       </c>
@@ -826,8 +818,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="3">
         <v>12</v>
       </c>
@@ -839,8 +831,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="3">
         <v>13</v>
       </c>
@@ -850,21 +842,19 @@
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="32.1" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="3">
         <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>22</v>
-      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="32.1" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5">
         <v>15</v>
       </c>
